--- a/HPC-Project-Template/wtf.xlsx
+++ b/HPC-Project-Template/wtf.xlsx
@@ -1,28 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johncarlsson/Desktop/HPC/HPC-Project-Template/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49158620-B5F4-E54D-AB0E-4C2ABAFFA82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>MMA Tensor Computing</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>MMA CUDA Shared Computing</t>
   </si>
   <si>
-    <t>MMA CUDA Shared Half Computing</t>
+    <t>MMA CUDA Shared Half Rect Tiling 32*64 Computing</t>
+  </si>
+  <si>
+    <t>MMA CUDA Shared Half Rect Tiling 32*96 Computing</t>
   </si>
   <si>
     <t>MMA CUDA Shared 16 Tile Computing</t>
@@ -30,12 +36,15 @@
   <si>
     <t>MMA CUDA Shared Halfs 32 Tile Computing</t>
   </si>
+  <si>
+    <t>MMA Tensor Computing</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,13 +107,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -142,7 +159,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -176,6 +193,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -210,9 +228,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -385,14 +404,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="7" width="24.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -408,168 +432,219 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>32</v>
       </c>
       <c r="B2">
-        <v>4.489716088328079</v>
+        <v>1.1027712017824809</v>
       </c>
       <c r="C2">
-        <v>1.165252988373998</v>
+        <v>3.6250858319981698</v>
       </c>
       <c r="D2">
-        <v>4.284286574352802</v>
+        <v>4.2358919497191776</v>
       </c>
       <c r="E2">
-        <v>1.440059899627651</v>
+        <v>1.18712288723157</v>
       </c>
       <c r="F2">
-        <v>1.164604608536267</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.89007530628301634</v>
+      </c>
+      <c r="G2">
+        <v>3.3758925716721748</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>64</v>
       </c>
       <c r="B3">
-        <v>7.373793506873355</v>
+        <v>1.5180487289255311</v>
       </c>
       <c r="C3">
-        <v>1.263867652588043</v>
+        <v>1.337602160802849</v>
       </c>
       <c r="D3">
-        <v>1.637769188293761</v>
+        <v>7.299364675984755</v>
       </c>
       <c r="E3">
-        <v>1.959886500563609</v>
+        <v>1.886939955327813</v>
       </c>
       <c r="F3">
-        <v>1.329623964980749</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>1.253294353783053</v>
+      </c>
+      <c r="G3">
+        <v>7.9885968571825936</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>128</v>
       </c>
       <c r="B4">
-        <v>0.9966894502976983</v>
+        <v>1.207677000896207</v>
       </c>
       <c r="C4">
-        <v>1.381753455256178</v>
+        <v>1.251574208173289</v>
       </c>
       <c r="D4">
-        <v>1.926052055460959</v>
+        <v>1.0858372029500141</v>
       </c>
       <c r="E4">
-        <v>1.792903561805131</v>
+        <v>1.6806536168773529</v>
       </c>
       <c r="F4">
-        <v>1.420855240727117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>1.37115411147903</v>
+      </c>
+      <c r="G4">
+        <v>1.003825660968158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>256</v>
       </c>
       <c r="B5">
-        <v>1.937314065695078</v>
+        <v>1.2852609837047779</v>
       </c>
       <c r="C5">
-        <v>1.376750244220124</v>
+        <v>2.2253973887345659</v>
       </c>
       <c r="D5">
-        <v>3.522982787782309</v>
+        <v>2.0238155828517872</v>
       </c>
       <c r="E5">
-        <v>1.331684843926288</v>
+        <v>1.2136731457838581</v>
       </c>
       <c r="F5">
-        <v>1.509420691419072</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>1.573184794198675</v>
+      </c>
+      <c r="G5">
+        <v>1.923947933630721</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>512</v>
       </c>
       <c r="B6">
-        <v>4.22206883199421</v>
+        <v>1.389495407664719</v>
       </c>
       <c r="C6">
-        <v>1.40439293669316</v>
+        <v>2.4612265003481428</v>
       </c>
       <c r="D6">
-        <v>4.616312781290555</v>
+        <v>2.6826079233980029</v>
       </c>
       <c r="E6">
-        <v>1.461478503983928</v>
+        <v>1.32832839502389</v>
       </c>
       <c r="F6">
-        <v>1.573728673961643</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>1.5290865163368621</v>
+      </c>
+      <c r="G6">
+        <v>3.701951412448262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1024</v>
       </c>
       <c r="B7">
-        <v>3.175153865927664</v>
+        <v>1.334365343461047</v>
       </c>
       <c r="C7">
-        <v>1.427161135343131</v>
+        <v>1.927653112097548</v>
       </c>
       <c r="D7">
-        <v>3.649884914679012</v>
+        <v>2.6694928140178691</v>
       </c>
       <c r="E7">
-        <v>1.581119757028504</v>
+        <v>1.357689398841418</v>
       </c>
       <c r="F7">
-        <v>1.243487936031356</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>1.216900931912934</v>
+      </c>
+      <c r="G7">
+        <v>3.1206164817093791</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2048</v>
       </c>
       <c r="B8">
-        <v>3.004148499083171</v>
+        <v>1.520773955725675</v>
       </c>
       <c r="C8">
-        <v>1.580900294302958</v>
+        <v>1.7100808675363439</v>
       </c>
       <c r="D8">
-        <v>3.183984450087013</v>
+        <v>2.108564290476842</v>
       </c>
       <c r="E8">
-        <v>1.592018193226412</v>
+        <v>1.417279099186433</v>
       </c>
       <c r="F8">
-        <v>1.63744674373464</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>1.5510855052487831</v>
+      </c>
+      <c r="G8">
+        <v>2.8983729255377209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>4096</v>
       </c>
       <c r="B9">
-        <v>3.86396335866792</v>
+        <v>1.601701060903564</v>
       </c>
       <c r="C9">
-        <v>1.607719312939931</v>
+        <v>2.7772969935697298</v>
       </c>
       <c r="D9">
-        <v>3.840915682508682</v>
+        <v>3.4817704246082051</v>
       </c>
       <c r="E9">
-        <v>1.640975888006476</v>
+        <v>1.413563818741185</v>
       </c>
       <c r="F9">
-        <v>1.707147169751793</v>
+        <v>1.6977938652063369</v>
+      </c>
+      <c r="G9">
+        <v>3.5845884663521068</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8192</v>
+      </c>
+      <c r="B10">
+        <v>1.5970177528467671</v>
+      </c>
+      <c r="C10">
+        <v>2.9057144195293798</v>
+      </c>
+      <c r="D10">
+        <v>3.6340184814234782</v>
+      </c>
+      <c r="E10">
+        <v>1.392161395335749</v>
+      </c>
+      <c r="F10">
+        <v>1.7551885266865801</v>
+      </c>
+      <c r="G10">
+        <v>5.5635836106035024</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>